--- a/仕様書/バグ取りスイマー_仕様書_プレイヤー.xlsx
+++ b/仕様書/バグ取りスイマー_仕様書_プレイヤー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ゲーム制作サークル\2023年度\日本ゲーム大賞アマチュア部門\JGA_2023_バージョン管理\仕様書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA9B973E-D5D3-49CE-8222-9339F49EF628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C988ABE-3B50-432D-A4D9-2F7786D8135B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-45" windowWidth="29040" windowHeight="15840" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F6F2A0B8-DF02-473D-B3F4-90E1A5A03874}"/>
   </bookViews>
   <sheets>
     <sheet name="トップページ" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="69">
   <si>
     <t>仕様書：更新履歴</t>
     <rPh sb="0" eb="3">
@@ -400,6 +400,246 @@
       <t>ガイヨウ</t>
     </rPh>
     <rPh sb="33" eb="35">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーの移動向き</t>
+    <rPh sb="5" eb="8">
+      <t>イドウム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・デフォルトは「右向き」</t>
+    <rPh sb="8" eb="10">
+      <t>ミギム</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ニュートラル or 移動中に沈む事はない</t>
+    <rPh sb="11" eb="14">
+      <t>イドウチュウ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>シズ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・左右の回転時は尻尾を振って回転する(アニメーションを入れる)</t>
+    <rPh sb="1" eb="3">
+      <t>サユウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>カイテンジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シッポ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カイテン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・移動時にスイマーの向きを変更する場合は「左右回転」で行う</t>
+    <rPh sb="1" eb="4">
+      <t>イドウジ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>サユウカイテン</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・移動している方向 / スイマーが向いている方向に突く</t>
+    <rPh sb="1" eb="3">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ツツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「突く」モーション時はスイマーの移動は不可 (2秒間)</t>
+    <rPh sb="26" eb="27">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「突く」モーション時はスイマーが前に突き出す。(2秒後) → 元の位置に戻る動作を行う</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「突く」アクションを行った瞬間、スイマーにブレーキがかかる</t>
+    <rPh sb="2" eb="3">
+      <t>ツツ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>シュンカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スイマーは「突く」アクションを行う</t>
+    <rPh sb="7" eb="8">
+      <t>ツツ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・スイマーはコードに対して「突く」事ができる</t>
+    <rPh sb="10" eb="11">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ツツ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・突いた方向にコードが90° 回転する</t>
+    <rPh sb="1" eb="2">
+      <t>ツツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>カイテン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーのアクション②</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーのアクション①</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・「スタート」から「ゴール」までコードを繋げると「ゴール」の部分からバグ虫が飛び出る</t>
+    <rPh sb="20" eb="21">
+      <t>ツナ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="38" eb="39">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="40" eb="41">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・バグ虫を「突く」事でバグ虫を食べる事ができる</t>
+    <rPh sb="3" eb="4">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ツツ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・バグ虫を食べるとステージクリアとなる</t>
+    <rPh sb="3" eb="4">
+      <t>ムシ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーの移動速度挙動の内容を追加</t>
+    <rPh sb="12" eb="14">
+      <t>ナイヨウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーの移動向きを記載</t>
+    <rPh sb="10" eb="12">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーのアクション①を記載</t>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スイマーのアクション②を記載</t>
+    <rPh sb="12" eb="14">
       <t>キサイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -986,7 +1226,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1161,7 +1401,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1173,13 +1419,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1298,9 +1538,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1435,6 +1672,256 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>156636</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="50" name="図 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAED7313-2F2F-4686-B3FA-4AAA2F50FCAF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8328660" y="22966680"/>
+          <a:ext cx="4789596" cy="2278381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>149016</xdr:colOff>
+      <xdr:row>124</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="図 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBA57BA3-2242-47F1-8097-221093A8D366}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8321040" y="19461480"/>
+          <a:ext cx="4789596" cy="2278381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>149016</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="図 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACB3F646-A061-48FB-B1BF-615E2BECF448}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8321040" y="15956280"/>
+          <a:ext cx="4789596" cy="2278381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>149016</xdr:colOff>
+      <xdr:row>84</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="図 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CFCF1D7-3773-47C4-9E13-9BD623D578C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8321040" y="12443460"/>
+          <a:ext cx="4789596" cy="2278381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>7619</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>149016</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="図 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2D992E7-735D-8060-E239-46C670FDFDEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8321040" y="8945879"/>
+          <a:ext cx="4789596" cy="2278381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>36</xdr:col>
@@ -1722,7 +2209,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1929,7 +2416,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2322,23 +2809,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>92587</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>66674</xdr:rowOff>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>72324</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>61</xdr:col>
-      <xdr:colOff>66676</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>56971</xdr:rowOff>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>32850</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>38009</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="図 11">
+        <xdr:cNvPr id="15" name="図 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{262B7DB6-AA6E-4459-83A5-1E7856F2638D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2619D6B-60BF-97F5-4652-08AE2D4A0C65}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2347,7 +2834,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -2360,8 +2847,2685 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9322312" y="10010774"/>
-          <a:ext cx="621789" cy="333197"/>
+          <a:off x="12073824" y="10058400"/>
+          <a:ext cx="600606" cy="319949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>58966</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>147150</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>30390</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="図 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919C39D2-9B3C-A6D2-B10B-87F907BC4EAB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10584180" y="10048786"/>
+          <a:ext cx="604350" cy="321944"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0D4572B-1D86-1625-1F24-6BA30EF40996}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11841480" y="10035540"/>
+          <a:ext cx="236220" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>87564</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>15195</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直線コネクタ 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D9EC0D6-F9D9-4A5D-ABDA-4E89E8185C43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11769024" y="10172700"/>
+          <a:ext cx="232476" cy="7575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>148524</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>175215</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="27" name="直線コネクタ 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C80F08-74A4-4F18-B2C9-6E53FAE0FE79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="11829984" y="10332720"/>
+          <a:ext cx="232476" cy="7575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>117860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>61</xdr:col>
+      <xdr:colOff>86190</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>60869</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="図 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C773E309-20EC-BDEB-8CA0-311A3E4D79D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9296400" y="10107680"/>
+          <a:ext cx="551010" cy="293529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="矢印: 右 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04A05720-6AE0-7B99-7E06-420404F1497E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11780520" y="9593580"/>
+          <a:ext cx="533400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>105306</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>152309</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="図 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2DB16EF-2B13-41E2-B952-C5DDDFDFB8EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11506200" y="12976860"/>
+          <a:ext cx="600606" cy="319949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>74826</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>159929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="図 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{196D384E-2E62-4EC9-BE00-B2BC7BB8065F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9555480" y="12984480"/>
+          <a:ext cx="600606" cy="319949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="矢印: 右 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB92871C-9A19-411A-B56E-1EFD6B83DF50}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11582400" y="12672060"/>
+          <a:ext cx="533400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="矢印: 右 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D940D27-422E-48BB-B9E2-D1DCE330CD86}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9555480" y="12672060"/>
+          <a:ext cx="533400" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>72</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="矢印: 下カーブ 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A966A5ED-D632-795B-5B24-47E23DBD2D58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11616690" y="13475970"/>
+          <a:ext cx="464820" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 55236"/>
+            <a:gd name="adj3" fmla="val 69156"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>25230</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>49689</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="44" name="図 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1222A6CE-E7C5-4FE5-A51D-EED2E1E5918F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11315700" y="13952220"/>
+          <a:ext cx="551010" cy="293529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>82446</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>76109</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="図 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1FD713-DA7F-4ADF-AFE2-15CC2F3EAC6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11811000" y="13952220"/>
+          <a:ext cx="592986" cy="319949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="矢印: 下カーブ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CDD7646-02C6-4FE5-8937-57150D0DE3E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="9582150" y="13437870"/>
+          <a:ext cx="464820" cy="472440"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedDownArrow">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 25000"/>
+            <a:gd name="adj2" fmla="val 55236"/>
+            <a:gd name="adj3" fmla="val 69156"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>101430</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>42069</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="47" name="図 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D1037A7-E2E4-40B6-A3C8-B8CBBFE9E2FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="9471660" y="13944600"/>
+          <a:ext cx="551010" cy="293529"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>13866</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>53249</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="48" name="図 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF28CD26-E696-4C75-A40C-7CF184C97EEA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9982200" y="13929360"/>
+          <a:ext cx="592986" cy="319949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>151</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>156636</xdr:colOff>
+      <xdr:row>164</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="図 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA230C9E-3DE4-410A-BE63-B84349DF8E48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8328660" y="26464260"/>
+          <a:ext cx="4789596" cy="2278381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>171</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>149016</xdr:colOff>
+      <xdr:row>184</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="図 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77517F30-53BC-47C7-8782-7056FD943C26}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8321040" y="29969460"/>
+          <a:ext cx="4789596" cy="2278381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>149016</xdr:colOff>
+      <xdr:row>204</xdr:row>
+      <xdr:rowOff>7621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="53" name="図 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81BE2B28-F65E-4355-A6AF-9286AC99E5D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8321040" y="33482280"/>
+          <a:ext cx="4789596" cy="2278381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>81</xdr:col>
+      <xdr:colOff>149016</xdr:colOff>
+      <xdr:row>224</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="54" name="図 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{134FEABA-510C-47F8-9A1C-1DE7F85A3173}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8321040" y="36979860"/>
+          <a:ext cx="4789596" cy="2278381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6010C67-653A-9B7C-5908-BE76237E1C74}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9281160" y="17465040"/>
+          <a:ext cx="342900" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E2885DC-4CA1-4FE6-9E9D-9FE0AB2ED7A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11887200" y="17480280"/>
+          <a:ext cx="342900" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="四角形: 角を丸くする 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCE140DB-C7C1-FF0D-FD36-18316B7FC66F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9624060" y="17579340"/>
+          <a:ext cx="693420" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="58" name="楕円 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93429C3C-3681-1F8D-73F8-3C9BE9ED6FF9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10279380" y="17548860"/>
+          <a:ext cx="160020" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="四角形: 角を丸くする 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651892DE-D12B-493C-8B29-DB4338721F58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10020300" y="17152620"/>
+          <a:ext cx="693420" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="四角形: 角を丸くする 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B8F5157-6F36-449F-ACA2-1265232F57F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10439400" y="17579340"/>
+          <a:ext cx="693420" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF">
+            <a:alpha val="50000"/>
+          </a:sysClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000">
+              <a:alpha val="50000"/>
+            </a:sysClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>144780</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="四角形: 角を丸くする 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEBB9BC1-4118-4472-8F65-D14E8EC04A0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11186160" y="17586960"/>
+          <a:ext cx="693420" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="楕円 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8DE9C96-CE90-4FA5-89A4-57D5EF8A4324}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11064240" y="17548860"/>
+          <a:ext cx="160020" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>133416</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>68535</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直線コネクタ 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED5F14C0-E699-427E-8568-DC14F398FCCE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9982200" y="17411700"/>
+          <a:ext cx="232476" cy="7575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>133416</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>152355</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="直線コネクタ 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E60043-95F9-4407-A34E-B00B57962B17}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9982200" y="16969740"/>
+          <a:ext cx="232476" cy="7575"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>66</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="矢印: 折線 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{549DB0D7-80FB-22D7-8F2A-A761EF1A716F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="10629900" y="16649700"/>
+          <a:ext cx="426720" cy="426720"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentArrow">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>145716</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>63330</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>167549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="74" name="図 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A28367F3-B37C-06E1-FA47-96E07A783C0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9746916" y="17045940"/>
+          <a:ext cx="557694" cy="297089"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>63</xdr:col>
+      <xdr:colOff>74826</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>7529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="図 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C740566-ECAD-43BC-9E7A-5E65F641DE71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9563100" y="17038320"/>
+          <a:ext cx="592986" cy="319949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>91440</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA661593-3EBA-41F2-8E35-ACC8BB7CD942}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9372600" y="21054060"/>
+          <a:ext cx="342900" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>S</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>77</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7AFD8F-6311-4806-A66F-25391EE1042D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11978640" y="21069300"/>
+          <a:ext cx="342900" cy="327660"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+              <a:ea typeface="メイリオ" panose="020B0604030504040204" pitchFamily="50" charset="-128"/>
+            </a:rPr>
+            <a:t>G</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="77" name="四角形: 角を丸くする 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F0A79C-09DA-441E-8674-DC03B67765C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9715500" y="21168360"/>
+          <a:ext cx="693420" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>64</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="78" name="楕円 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94E50A4A-3B38-43D6-AE7E-E02EF91296AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10370820" y="21137880"/>
+          <a:ext cx="160020" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="四角形: 角を丸くする 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4417C107-FFD5-4AAB-8C1C-38D33BDAEDE8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10530840" y="21168360"/>
+          <a:ext cx="693420" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="80" name="四角形: 角を丸くする 79">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9101C13-0841-4C8E-AEC7-EDABE3FC787F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11277600" y="21175980"/>
+          <a:ext cx="693420" cy="114300"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="28575">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>69</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>70</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>121</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="81" name="楕円 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACBBC852-811B-4E97-A0E8-8E0765EEDA42}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11155680" y="21137880"/>
+          <a:ext cx="160020" cy="182880"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>135786</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>121829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="図 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{956C1F1C-A7BC-4B36-9926-AC287A81613A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9464040" y="20482560"/>
+          <a:ext cx="592986" cy="319949"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>76</xdr:col>
+      <xdr:colOff>132080</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>150368</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>79</xdr:col>
+      <xdr:colOff>27939</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>5587</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="84" name="図 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB1D2CC2-94D1-6B38-2271-32B8344EA591}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12291060" y="21008848"/>
+          <a:ext cx="380999" cy="375919"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>73</xdr:col>
+      <xdr:colOff>102267</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>75</xdr:col>
+      <xdr:colOff>156805</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>29120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="図 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BEBD326E-A1E8-FDFC-F63C-EDCD9E72B643}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11781196" y="20507951"/>
+          <a:ext cx="379640" cy="374578"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>120546</xdr:colOff>
+      <xdr:row>118</xdr:row>
+      <xdr:rowOff>167549</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="図 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEF8B435-C422-42AF-9DA2-180A9DAA889F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11369040" y="20528280"/>
+          <a:ext cx="592986" cy="319949"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2673,7 +5837,7 @@
   <dimension ref="A1:BU51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD3"/>
+      <selection activeCell="AQ25" sqref="AQ25:BU25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.09765625" defaultRowHeight="13.8" customHeight="1" x14ac:dyDescent="0.45"/>
@@ -3913,7 +7077,9 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
       <c r="G22" s="10"/>
-      <c r="I22" s="3"/>
+      <c r="I22" s="7">
+        <v>44986</v>
+      </c>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
       <c r="L22" s="4"/>
@@ -3924,7 +7090,9 @@
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
       <c r="S22" s="5"/>
-      <c r="T22" s="2"/>
+      <c r="T22" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -3932,7 +7100,9 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
+      <c r="AB22" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
       <c r="AE22" s="2"/>
@@ -3947,7 +7117,9 @@
       <c r="AN22" s="2"/>
       <c r="AO22" s="2"/>
       <c r="AP22" s="2"/>
-      <c r="AQ22" s="2"/>
+      <c r="AQ22" s="2" t="s">
+        <v>65</v>
+      </c>
       <c r="AR22" s="2"/>
       <c r="AS22" s="2"/>
       <c r="AT22" s="2"/>
@@ -3987,7 +7159,9 @@
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
       <c r="G23" s="13"/>
-      <c r="I23" s="3"/>
+      <c r="I23" s="7">
+        <v>44986</v>
+      </c>
       <c r="J23" s="4"/>
       <c r="K23" s="4"/>
       <c r="L23" s="4"/>
@@ -3998,7 +7172,9 @@
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
       <c r="S23" s="5"/>
-      <c r="T23" s="2"/>
+      <c r="T23" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -4006,7 +7182,9 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
-      <c r="AB23" s="2"/>
+      <c r="AB23" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
       <c r="AE23" s="2"/>
@@ -4021,7 +7199,9 @@
       <c r="AN23" s="2"/>
       <c r="AO23" s="2"/>
       <c r="AP23" s="2"/>
-      <c r="AQ23" s="2"/>
+      <c r="AQ23" s="2" t="s">
+        <v>66</v>
+      </c>
       <c r="AR23" s="2"/>
       <c r="AS23" s="2"/>
       <c r="AT23" s="2"/>
@@ -4061,7 +7241,9 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
       <c r="G24" s="10"/>
-      <c r="I24" s="3"/>
+      <c r="I24" s="7">
+        <v>44986</v>
+      </c>
       <c r="J24" s="4"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
@@ -4072,7 +7254,9 @@
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
       <c r="S24" s="5"/>
-      <c r="T24" s="2"/>
+      <c r="T24" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
@@ -4080,7 +7264,9 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
+      <c r="AB24" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
       <c r="AE24" s="2"/>
@@ -4095,7 +7281,9 @@
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
+      <c r="AQ24" s="2" t="s">
+        <v>67</v>
+      </c>
       <c r="AR24" s="2"/>
       <c r="AS24" s="2"/>
       <c r="AT24" s="2"/>
@@ -4135,7 +7323,9 @@
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
       <c r="G25" s="13"/>
-      <c r="I25" s="3"/>
+      <c r="I25" s="7">
+        <v>44986</v>
+      </c>
       <c r="J25" s="4"/>
       <c r="K25" s="4"/>
       <c r="L25" s="4"/>
@@ -4146,7 +7336,9 @@
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
       <c r="S25" s="5"/>
-      <c r="T25" s="2"/>
+      <c r="T25" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -4154,7 +7346,9 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
       <c r="AA25" s="2"/>
-      <c r="AB25" s="2"/>
+      <c r="AB25" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
@@ -4169,7 +7363,9 @@
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
       <c r="AP25" s="2"/>
-      <c r="AQ25" s="2"/>
+      <c r="AQ25" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="AR25" s="2"/>
       <c r="AS25" s="2"/>
       <c r="AT25" s="2"/>
@@ -5510,88 +8706,88 @@
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
       <c r="G14" s="10"/>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="J14" s="58"/>
-      <c r="K14" s="58"/>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="58"/>
-      <c r="O14" s="58"/>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
-      <c r="R14" s="58"/>
-      <c r="S14" s="58"/>
-      <c r="T14" s="58"/>
-      <c r="U14" s="58"/>
-      <c r="V14" s="59" t="s">
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
+      <c r="L14" s="64"/>
+      <c r="M14" s="64"/>
+      <c r="N14" s="64"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="64"/>
+      <c r="T14" s="64"/>
+      <c r="U14" s="64"/>
+      <c r="V14" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="W14" s="60"/>
-      <c r="X14" s="60"/>
-      <c r="Y14" s="60"/>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="60"/>
-      <c r="AC14" s="60"/>
-      <c r="AD14" s="60"/>
-      <c r="AE14" s="60"/>
-      <c r="AF14" s="60"/>
-      <c r="AG14" s="60"/>
-      <c r="AH14" s="60"/>
-      <c r="AI14" s="60"/>
-      <c r="AJ14" s="60"/>
-      <c r="AK14" s="60"/>
-      <c r="AL14" s="60"/>
-      <c r="AM14" s="60"/>
-      <c r="AN14" s="60"/>
-      <c r="AO14" s="60"/>
-      <c r="AP14" s="60"/>
-      <c r="AQ14" s="60"/>
-      <c r="AR14" s="60"/>
-      <c r="AS14" s="60"/>
-      <c r="AT14" s="60"/>
-      <c r="AU14" s="60"/>
-      <c r="AV14" s="60"/>
-      <c r="AW14" s="60"/>
-      <c r="AX14" s="60"/>
-      <c r="AY14" s="60"/>
-      <c r="AZ14" s="60"/>
-      <c r="BA14" s="60"/>
-      <c r="BB14" s="60"/>
-      <c r="BC14" s="60"/>
-      <c r="BD14" s="60"/>
-      <c r="BE14" s="60"/>
-      <c r="BF14" s="60"/>
-      <c r="BG14" s="60"/>
-      <c r="BH14" s="60"/>
-      <c r="BI14" s="61"/>
-      <c r="BJ14" s="58" t="s">
+      <c r="W14" s="62"/>
+      <c r="X14" s="62"/>
+      <c r="Y14" s="62"/>
+      <c r="Z14" s="62"/>
+      <c r="AA14" s="62"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="62"/>
+      <c r="AD14" s="62"/>
+      <c r="AE14" s="62"/>
+      <c r="AF14" s="62"/>
+      <c r="AG14" s="62"/>
+      <c r="AH14" s="62"/>
+      <c r="AI14" s="62"/>
+      <c r="AJ14" s="62"/>
+      <c r="AK14" s="62"/>
+      <c r="AL14" s="62"/>
+      <c r="AM14" s="62"/>
+      <c r="AN14" s="62"/>
+      <c r="AO14" s="62"/>
+      <c r="AP14" s="62"/>
+      <c r="AQ14" s="62"/>
+      <c r="AR14" s="62"/>
+      <c r="AS14" s="62"/>
+      <c r="AT14" s="62"/>
+      <c r="AU14" s="62"/>
+      <c r="AV14" s="62"/>
+      <c r="AW14" s="62"/>
+      <c r="AX14" s="62"/>
+      <c r="AY14" s="62"/>
+      <c r="AZ14" s="62"/>
+      <c r="BA14" s="62"/>
+      <c r="BB14" s="62"/>
+      <c r="BC14" s="62"/>
+      <c r="BD14" s="62"/>
+      <c r="BE14" s="62"/>
+      <c r="BF14" s="62"/>
+      <c r="BG14" s="62"/>
+      <c r="BH14" s="62"/>
+      <c r="BI14" s="63"/>
+      <c r="BJ14" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="BK14" s="58"/>
-      <c r="BL14" s="58"/>
-      <c r="BM14" s="58"/>
-      <c r="BN14" s="58"/>
-      <c r="BO14" s="58"/>
-      <c r="BP14" s="58" t="s">
+      <c r="BK14" s="64"/>
+      <c r="BL14" s="64"/>
+      <c r="BM14" s="64"/>
+      <c r="BN14" s="64"/>
+      <c r="BO14" s="64"/>
+      <c r="BP14" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="BQ14" s="58"/>
-      <c r="BR14" s="58"/>
-      <c r="BS14" s="58"/>
-      <c r="BT14" s="58"/>
-      <c r="BU14" s="58"/>
-      <c r="BV14" s="58"/>
-      <c r="BW14" s="58"/>
-      <c r="BX14" s="58"/>
-      <c r="BY14" s="58"/>
-      <c r="BZ14" s="58"/>
-      <c r="CA14" s="58"/>
-      <c r="CB14" s="58"/>
-      <c r="CC14" s="58"/>
-      <c r="CD14" s="58"/>
+      <c r="BQ14" s="64"/>
+      <c r="BR14" s="64"/>
+      <c r="BS14" s="64"/>
+      <c r="BT14" s="64"/>
+      <c r="BU14" s="64"/>
+      <c r="BV14" s="64"/>
+      <c r="BW14" s="64"/>
+      <c r="BX14" s="64"/>
+      <c r="BY14" s="64"/>
+      <c r="BZ14" s="64"/>
+      <c r="CA14" s="64"/>
+      <c r="CB14" s="64"/>
+      <c r="CC14" s="64"/>
+      <c r="CD14" s="64"/>
     </row>
     <row r="15" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A15" s="11"/>
@@ -5614,67 +8810,67 @@
       <c r="S15" s="54"/>
       <c r="T15" s="54"/>
       <c r="U15" s="54"/>
-      <c r="V15" s="62"/>
-      <c r="W15" s="63"/>
-      <c r="X15" s="63"/>
-      <c r="Y15" s="63"/>
-      <c r="Z15" s="63"/>
-      <c r="AA15" s="63"/>
-      <c r="AB15" s="63"/>
-      <c r="AC15" s="63"/>
-      <c r="AD15" s="63"/>
-      <c r="AE15" s="63"/>
-      <c r="AF15" s="63"/>
-      <c r="AG15" s="63"/>
-      <c r="AH15" s="63"/>
-      <c r="AI15" s="63"/>
-      <c r="AJ15" s="63"/>
-      <c r="AK15" s="63"/>
-      <c r="AL15" s="63"/>
-      <c r="AM15" s="63"/>
-      <c r="AN15" s="63"/>
-      <c r="AO15" s="63"/>
-      <c r="AP15" s="63"/>
-      <c r="AQ15" s="63"/>
-      <c r="AR15" s="63"/>
-      <c r="AS15" s="63"/>
-      <c r="AT15" s="63"/>
-      <c r="AU15" s="63"/>
-      <c r="AV15" s="63"/>
-      <c r="AW15" s="63"/>
-      <c r="AX15" s="63"/>
-      <c r="AY15" s="63"/>
-      <c r="AZ15" s="63"/>
-      <c r="BA15" s="63"/>
-      <c r="BB15" s="63"/>
-      <c r="BC15" s="63"/>
-      <c r="BD15" s="63"/>
-      <c r="BE15" s="63"/>
-      <c r="BF15" s="63"/>
-      <c r="BG15" s="63"/>
-      <c r="BH15" s="63"/>
-      <c r="BI15" s="64"/>
-      <c r="BJ15" s="62"/>
-      <c r="BK15" s="63"/>
-      <c r="BL15" s="63"/>
-      <c r="BM15" s="63"/>
-      <c r="BN15" s="63"/>
-      <c r="BO15" s="64"/>
-      <c r="BP15" s="62"/>
-      <c r="BQ15" s="63"/>
-      <c r="BR15" s="63"/>
-      <c r="BS15" s="63"/>
-      <c r="BT15" s="63"/>
-      <c r="BU15" s="63"/>
-      <c r="BV15" s="63"/>
-      <c r="BW15" s="63"/>
-      <c r="BX15" s="63"/>
-      <c r="BY15" s="63"/>
-      <c r="BZ15" s="63"/>
-      <c r="CA15" s="63"/>
-      <c r="CB15" s="63"/>
-      <c r="CC15" s="63"/>
-      <c r="CD15" s="64"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="59"/>
+      <c r="X15" s="59"/>
+      <c r="Y15" s="59"/>
+      <c r="Z15" s="59"/>
+      <c r="AA15" s="59"/>
+      <c r="AB15" s="59"/>
+      <c r="AC15" s="59"/>
+      <c r="AD15" s="59"/>
+      <c r="AE15" s="59"/>
+      <c r="AF15" s="59"/>
+      <c r="AG15" s="59"/>
+      <c r="AH15" s="59"/>
+      <c r="AI15" s="59"/>
+      <c r="AJ15" s="59"/>
+      <c r="AK15" s="59"/>
+      <c r="AL15" s="59"/>
+      <c r="AM15" s="59"/>
+      <c r="AN15" s="59"/>
+      <c r="AO15" s="59"/>
+      <c r="AP15" s="59"/>
+      <c r="AQ15" s="59"/>
+      <c r="AR15" s="59"/>
+      <c r="AS15" s="59"/>
+      <c r="AT15" s="59"/>
+      <c r="AU15" s="59"/>
+      <c r="AV15" s="59"/>
+      <c r="AW15" s="59"/>
+      <c r="AX15" s="59"/>
+      <c r="AY15" s="59"/>
+      <c r="AZ15" s="59"/>
+      <c r="BA15" s="59"/>
+      <c r="BB15" s="59"/>
+      <c r="BC15" s="59"/>
+      <c r="BD15" s="59"/>
+      <c r="BE15" s="59"/>
+      <c r="BF15" s="59"/>
+      <c r="BG15" s="59"/>
+      <c r="BH15" s="59"/>
+      <c r="BI15" s="60"/>
+      <c r="BJ15" s="58"/>
+      <c r="BK15" s="59"/>
+      <c r="BL15" s="59"/>
+      <c r="BM15" s="59"/>
+      <c r="BN15" s="59"/>
+      <c r="BO15" s="60"/>
+      <c r="BP15" s="58"/>
+      <c r="BQ15" s="59"/>
+      <c r="BR15" s="59"/>
+      <c r="BS15" s="59"/>
+      <c r="BT15" s="59"/>
+      <c r="BU15" s="59"/>
+      <c r="BV15" s="59"/>
+      <c r="BW15" s="59"/>
+      <c r="BX15" s="59"/>
+      <c r="BY15" s="59"/>
+      <c r="BZ15" s="59"/>
+      <c r="CA15" s="59"/>
+      <c r="CB15" s="59"/>
+      <c r="CC15" s="59"/>
+      <c r="CD15" s="60"/>
     </row>
     <row r="16" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="8"/>
@@ -6377,90 +9573,90 @@
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
       <c r="G27" s="13"/>
-      <c r="I27" s="59" t="s">
+      <c r="I27" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="J27" s="60"/>
-      <c r="K27" s="60"/>
-      <c r="L27" s="60"/>
-      <c r="M27" s="60"/>
-      <c r="N27" s="60"/>
-      <c r="O27" s="60"/>
-      <c r="P27" s="60"/>
-      <c r="Q27" s="60"/>
-      <c r="R27" s="60"/>
-      <c r="S27" s="60"/>
-      <c r="T27" s="60"/>
-      <c r="U27" s="61"/>
-      <c r="V27" s="59" t="s">
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="61" t="s">
         <v>25</v>
       </c>
-      <c r="W27" s="60"/>
-      <c r="X27" s="60"/>
-      <c r="Y27" s="60"/>
-      <c r="Z27" s="60"/>
-      <c r="AA27" s="60"/>
-      <c r="AB27" s="60"/>
-      <c r="AC27" s="60"/>
-      <c r="AD27" s="60"/>
-      <c r="AE27" s="60"/>
-      <c r="AF27" s="60"/>
-      <c r="AG27" s="60"/>
-      <c r="AH27" s="60"/>
-      <c r="AI27" s="60"/>
-      <c r="AJ27" s="60"/>
-      <c r="AK27" s="60"/>
-      <c r="AL27" s="60"/>
-      <c r="AM27" s="60"/>
-      <c r="AN27" s="60"/>
-      <c r="AO27" s="60"/>
-      <c r="AP27" s="60"/>
-      <c r="AQ27" s="60"/>
-      <c r="AR27" s="60"/>
-      <c r="AS27" s="60"/>
-      <c r="AT27" s="60"/>
-      <c r="AU27" s="60"/>
-      <c r="AV27" s="60"/>
-      <c r="AW27" s="61"/>
-      <c r="AX27" s="59" t="s">
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="62"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="62"/>
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="62"/>
+      <c r="AW27" s="63"/>
+      <c r="AX27" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="AY27" s="60"/>
-      <c r="AZ27" s="60"/>
-      <c r="BA27" s="60"/>
-      <c r="BB27" s="60"/>
-      <c r="BC27" s="60"/>
-      <c r="BD27" s="60"/>
-      <c r="BE27" s="60"/>
-      <c r="BF27" s="60"/>
-      <c r="BG27" s="60"/>
-      <c r="BH27" s="60"/>
-      <c r="BI27" s="61"/>
-      <c r="BJ27" s="59" t="s">
+      <c r="AY27" s="62"/>
+      <c r="AZ27" s="62"/>
+      <c r="BA27" s="62"/>
+      <c r="BB27" s="62"/>
+      <c r="BC27" s="62"/>
+      <c r="BD27" s="62"/>
+      <c r="BE27" s="62"/>
+      <c r="BF27" s="62"/>
+      <c r="BG27" s="62"/>
+      <c r="BH27" s="62"/>
+      <c r="BI27" s="63"/>
+      <c r="BJ27" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="BK27" s="60"/>
-      <c r="BL27" s="60"/>
-      <c r="BM27" s="60"/>
-      <c r="BN27" s="60"/>
-      <c r="BO27" s="61"/>
-      <c r="BP27" s="59" t="s">
+      <c r="BK27" s="62"/>
+      <c r="BL27" s="62"/>
+      <c r="BM27" s="62"/>
+      <c r="BN27" s="62"/>
+      <c r="BO27" s="63"/>
+      <c r="BP27" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="BQ27" s="60"/>
-      <c r="BR27" s="60"/>
-      <c r="BS27" s="60"/>
-      <c r="BT27" s="60"/>
-      <c r="BU27" s="60"/>
-      <c r="BV27" s="60"/>
-      <c r="BW27" s="60"/>
-      <c r="BX27" s="60"/>
-      <c r="BY27" s="60"/>
-      <c r="BZ27" s="60"/>
-      <c r="CA27" s="60"/>
-      <c r="CB27" s="60"/>
-      <c r="CC27" s="60"/>
-      <c r="CD27" s="61"/>
+      <c r="BQ27" s="62"/>
+      <c r="BR27" s="62"/>
+      <c r="BS27" s="62"/>
+      <c r="BT27" s="62"/>
+      <c r="BU27" s="62"/>
+      <c r="BV27" s="62"/>
+      <c r="BW27" s="62"/>
+      <c r="BX27" s="62"/>
+      <c r="BY27" s="62"/>
+      <c r="BZ27" s="62"/>
+      <c r="CA27" s="62"/>
+      <c r="CB27" s="62"/>
+      <c r="CC27" s="62"/>
+      <c r="CD27" s="63"/>
     </row>
     <row r="28" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="8"/>
@@ -6470,80 +9666,80 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="10"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="63"/>
-      <c r="P28" s="63"/>
-      <c r="Q28" s="63"/>
-      <c r="R28" s="63"/>
-      <c r="S28" s="63"/>
-      <c r="T28" s="63"/>
-      <c r="U28" s="64"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="63"/>
-      <c r="X28" s="63"/>
-      <c r="Y28" s="63"/>
-      <c r="Z28" s="63"/>
-      <c r="AA28" s="63"/>
-      <c r="AB28" s="63"/>
-      <c r="AC28" s="63"/>
-      <c r="AD28" s="63"/>
-      <c r="AE28" s="63"/>
-      <c r="AF28" s="63"/>
-      <c r="AG28" s="63"/>
-      <c r="AH28" s="63"/>
-      <c r="AI28" s="63"/>
-      <c r="AJ28" s="63"/>
-      <c r="AK28" s="63"/>
-      <c r="AL28" s="63"/>
-      <c r="AM28" s="63"/>
-      <c r="AN28" s="63"/>
-      <c r="AO28" s="63"/>
-      <c r="AP28" s="63"/>
-      <c r="AQ28" s="63"/>
-      <c r="AR28" s="63"/>
-      <c r="AS28" s="63"/>
-      <c r="AT28" s="63"/>
-      <c r="AU28" s="63"/>
-      <c r="AV28" s="63"/>
-      <c r="AW28" s="64"/>
-      <c r="AX28" s="62"/>
-      <c r="AY28" s="63"/>
-      <c r="AZ28" s="63"/>
-      <c r="BA28" s="63"/>
-      <c r="BB28" s="63"/>
-      <c r="BC28" s="63"/>
-      <c r="BD28" s="63"/>
-      <c r="BE28" s="63"/>
-      <c r="BF28" s="63"/>
-      <c r="BG28" s="63"/>
-      <c r="BH28" s="63"/>
-      <c r="BI28" s="64"/>
-      <c r="BJ28" s="62"/>
-      <c r="BK28" s="63"/>
-      <c r="BL28" s="63"/>
-      <c r="BM28" s="63"/>
-      <c r="BN28" s="63"/>
-      <c r="BO28" s="64"/>
-      <c r="BP28" s="62"/>
-      <c r="BQ28" s="63"/>
-      <c r="BR28" s="63"/>
-      <c r="BS28" s="63"/>
-      <c r="BT28" s="63"/>
-      <c r="BU28" s="63"/>
-      <c r="BV28" s="63"/>
-      <c r="BW28" s="63"/>
-      <c r="BX28" s="63"/>
-      <c r="BY28" s="63"/>
-      <c r="BZ28" s="63"/>
-      <c r="CA28" s="63"/>
-      <c r="CB28" s="63"/>
-      <c r="CC28" s="63"/>
-      <c r="CD28" s="64"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="59"/>
+      <c r="AO28" s="59"/>
+      <c r="AP28" s="59"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="59"/>
+      <c r="AS28" s="59"/>
+      <c r="AT28" s="59"/>
+      <c r="AU28" s="59"/>
+      <c r="AV28" s="59"/>
+      <c r="AW28" s="60"/>
+      <c r="AX28" s="58"/>
+      <c r="AY28" s="59"/>
+      <c r="AZ28" s="59"/>
+      <c r="BA28" s="59"/>
+      <c r="BB28" s="59"/>
+      <c r="BC28" s="59"/>
+      <c r="BD28" s="59"/>
+      <c r="BE28" s="59"/>
+      <c r="BF28" s="59"/>
+      <c r="BG28" s="59"/>
+      <c r="BH28" s="59"/>
+      <c r="BI28" s="60"/>
+      <c r="BJ28" s="58"/>
+      <c r="BK28" s="59"/>
+      <c r="BL28" s="59"/>
+      <c r="BM28" s="59"/>
+      <c r="BN28" s="59"/>
+      <c r="BO28" s="60"/>
+      <c r="BP28" s="58"/>
+      <c r="BQ28" s="59"/>
+      <c r="BR28" s="59"/>
+      <c r="BS28" s="59"/>
+      <c r="BT28" s="59"/>
+      <c r="BU28" s="59"/>
+      <c r="BV28" s="59"/>
+      <c r="BW28" s="59"/>
+      <c r="BX28" s="59"/>
+      <c r="BY28" s="59"/>
+      <c r="BZ28" s="59"/>
+      <c r="CA28" s="59"/>
+      <c r="CB28" s="59"/>
+      <c r="CC28" s="59"/>
+      <c r="CD28" s="60"/>
     </row>
     <row r="29" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="11"/>
@@ -7744,88 +10940,88 @@
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="10"/>
-      <c r="I46" s="58" t="s">
+      <c r="I46" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
-      <c r="Q46" s="58"/>
-      <c r="R46" s="58"/>
-      <c r="S46" s="58"/>
-      <c r="T46" s="58"/>
-      <c r="U46" s="58"/>
-      <c r="V46" s="58" t="s">
+      <c r="J46" s="64"/>
+      <c r="K46" s="64"/>
+      <c r="L46" s="64"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="64"/>
+      <c r="T46" s="64"/>
+      <c r="U46" s="64"/>
+      <c r="V46" s="64" t="s">
         <v>25</v>
       </c>
-      <c r="W46" s="58"/>
-      <c r="X46" s="58"/>
-      <c r="Y46" s="58"/>
-      <c r="Z46" s="58"/>
-      <c r="AA46" s="58"/>
-      <c r="AB46" s="58"/>
-      <c r="AC46" s="58"/>
-      <c r="AD46" s="58"/>
-      <c r="AE46" s="58"/>
-      <c r="AF46" s="58"/>
-      <c r="AG46" s="58"/>
-      <c r="AH46" s="58"/>
-      <c r="AI46" s="58"/>
-      <c r="AJ46" s="58"/>
-      <c r="AK46" s="58"/>
-      <c r="AL46" s="58"/>
-      <c r="AM46" s="58"/>
-      <c r="AN46" s="58"/>
-      <c r="AO46" s="58"/>
-      <c r="AP46" s="58"/>
-      <c r="AQ46" s="58"/>
-      <c r="AR46" s="58"/>
-      <c r="AS46" s="58"/>
-      <c r="AT46" s="58"/>
-      <c r="AU46" s="58"/>
-      <c r="AV46" s="58"/>
-      <c r="AW46" s="58"/>
-      <c r="AX46" s="58" t="s">
+      <c r="W46" s="64"/>
+      <c r="X46" s="64"/>
+      <c r="Y46" s="64"/>
+      <c r="Z46" s="64"/>
+      <c r="AA46" s="64"/>
+      <c r="AB46" s="64"/>
+      <c r="AC46" s="64"/>
+      <c r="AD46" s="64"/>
+      <c r="AE46" s="64"/>
+      <c r="AF46" s="64"/>
+      <c r="AG46" s="64"/>
+      <c r="AH46" s="64"/>
+      <c r="AI46" s="64"/>
+      <c r="AJ46" s="64"/>
+      <c r="AK46" s="64"/>
+      <c r="AL46" s="64"/>
+      <c r="AM46" s="64"/>
+      <c r="AN46" s="64"/>
+      <c r="AO46" s="64"/>
+      <c r="AP46" s="64"/>
+      <c r="AQ46" s="64"/>
+      <c r="AR46" s="64"/>
+      <c r="AS46" s="64"/>
+      <c r="AT46" s="64"/>
+      <c r="AU46" s="64"/>
+      <c r="AV46" s="64"/>
+      <c r="AW46" s="64"/>
+      <c r="AX46" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="AY46" s="58"/>
-      <c r="AZ46" s="58"/>
-      <c r="BA46" s="58"/>
-      <c r="BB46" s="58"/>
-      <c r="BC46" s="58"/>
-      <c r="BD46" s="58"/>
-      <c r="BE46" s="58"/>
-      <c r="BF46" s="58"/>
-      <c r="BG46" s="58"/>
-      <c r="BH46" s="58"/>
-      <c r="BI46" s="58"/>
-      <c r="BJ46" s="58" t="s">
+      <c r="AY46" s="64"/>
+      <c r="AZ46" s="64"/>
+      <c r="BA46" s="64"/>
+      <c r="BB46" s="64"/>
+      <c r="BC46" s="64"/>
+      <c r="BD46" s="64"/>
+      <c r="BE46" s="64"/>
+      <c r="BF46" s="64"/>
+      <c r="BG46" s="64"/>
+      <c r="BH46" s="64"/>
+      <c r="BI46" s="64"/>
+      <c r="BJ46" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="BK46" s="58"/>
-      <c r="BL46" s="58"/>
-      <c r="BM46" s="58"/>
-      <c r="BN46" s="58"/>
-      <c r="BO46" s="58"/>
-      <c r="BP46" s="58"/>
-      <c r="BQ46" s="58"/>
-      <c r="BR46" s="58"/>
-      <c r="BS46" s="58"/>
-      <c r="BT46" s="58"/>
-      <c r="BU46" s="58"/>
-      <c r="BV46" s="58"/>
-      <c r="BW46" s="58"/>
-      <c r="BX46" s="58"/>
-      <c r="BY46" s="58"/>
-      <c r="BZ46" s="58"/>
-      <c r="CA46" s="58"/>
-      <c r="CB46" s="58"/>
-      <c r="CC46" s="58"/>
-      <c r="CD46" s="58"/>
+      <c r="BK46" s="64"/>
+      <c r="BL46" s="64"/>
+      <c r="BM46" s="64"/>
+      <c r="BN46" s="64"/>
+      <c r="BO46" s="64"/>
+      <c r="BP46" s="64"/>
+      <c r="BQ46" s="64"/>
+      <c r="BR46" s="64"/>
+      <c r="BS46" s="64"/>
+      <c r="BT46" s="64"/>
+      <c r="BU46" s="64"/>
+      <c r="BV46" s="64"/>
+      <c r="BW46" s="64"/>
+      <c r="BX46" s="64"/>
+      <c r="BY46" s="64"/>
+      <c r="BZ46" s="64"/>
+      <c r="CA46" s="64"/>
+      <c r="CB46" s="64"/>
+      <c r="CC46" s="64"/>
+      <c r="CD46" s="64"/>
     </row>
     <row r="47" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="11"/>
@@ -14659,80 +17855,6 @@
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
       <c r="G45" s="13"/>
-      <c r="I45" s="104"/>
-      <c r="J45" s="104"/>
-      <c r="K45" s="104"/>
-      <c r="L45" s="104"/>
-      <c r="M45" s="104"/>
-      <c r="N45" s="104"/>
-      <c r="O45" s="104"/>
-      <c r="P45" s="104"/>
-      <c r="Q45" s="104"/>
-      <c r="R45" s="104"/>
-      <c r="S45" s="104"/>
-      <c r="T45" s="104"/>
-      <c r="U45" s="104"/>
-      <c r="V45" s="104"/>
-      <c r="W45" s="104"/>
-      <c r="X45" s="104"/>
-      <c r="Y45" s="104"/>
-      <c r="Z45" s="104"/>
-      <c r="AA45" s="104"/>
-      <c r="AB45" s="104"/>
-      <c r="AC45" s="104"/>
-      <c r="AD45" s="104"/>
-      <c r="AE45" s="104"/>
-      <c r="AF45" s="104"/>
-      <c r="AG45" s="104"/>
-      <c r="AH45" s="104"/>
-      <c r="AI45" s="104"/>
-      <c r="AJ45" s="104"/>
-      <c r="AK45" s="104"/>
-      <c r="AL45" s="104"/>
-      <c r="AM45" s="104"/>
-      <c r="AN45" s="104"/>
-      <c r="AO45" s="104"/>
-      <c r="AP45" s="104"/>
-      <c r="AQ45" s="104"/>
-      <c r="AR45" s="104"/>
-      <c r="AS45" s="104"/>
-      <c r="AT45" s="104"/>
-      <c r="AU45" s="104"/>
-      <c r="AV45" s="104"/>
-      <c r="AW45" s="104"/>
-      <c r="AX45" s="104"/>
-      <c r="AY45" s="104"/>
-      <c r="AZ45" s="104"/>
-      <c r="BA45" s="104"/>
-      <c r="BB45" s="104"/>
-      <c r="BC45" s="104"/>
-      <c r="BD45" s="104"/>
-      <c r="BE45" s="104"/>
-      <c r="BF45" s="104"/>
-      <c r="BG45" s="104"/>
-      <c r="BH45" s="104"/>
-      <c r="BI45" s="104"/>
-      <c r="BJ45" s="104"/>
-      <c r="BK45" s="104"/>
-      <c r="BL45" s="104"/>
-      <c r="BM45" s="104"/>
-      <c r="BN45" s="104"/>
-      <c r="BO45" s="104"/>
-      <c r="BP45" s="104"/>
-      <c r="BQ45" s="104"/>
-      <c r="BR45" s="104"/>
-      <c r="BS45" s="104"/>
-      <c r="BT45" s="104"/>
-      <c r="BU45" s="104"/>
-      <c r="BV45" s="104"/>
-      <c r="BW45" s="104"/>
-      <c r="BX45" s="104"/>
-      <c r="BY45" s="104"/>
-      <c r="BZ45" s="104"/>
-      <c r="CA45" s="104"/>
-      <c r="CB45" s="104"/>
-      <c r="CC45" s="104"/>
-      <c r="CD45" s="104"/>
     </row>
     <row r="46" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="8"/>
@@ -15326,7 +18448,7 @@
     </row>
     <row r="56" spans="1:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I56" s="95" t="s">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="J56" s="96"/>
       <c r="K56" s="96"/>
@@ -16018,7 +19140,9 @@
     </row>
     <row r="67" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="68" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I68" s="36"/>
+      <c r="I68" s="36" t="s">
+        <v>48</v>
+      </c>
       <c r="J68" s="37"/>
       <c r="K68" s="37"/>
       <c r="L68" s="37"/>
@@ -16326,7 +19450,7 @@
     </row>
     <row r="73" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I73" s="92" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="J73" s="93"/>
       <c r="K73" s="93"/>
@@ -16404,7 +19528,7 @@
     </row>
     <row r="74" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I74" s="95" t="s">
-        <v>39</v>
+        <v>52</v>
       </c>
       <c r="J74" s="96"/>
       <c r="K74" s="96"/>
@@ -16482,7 +19606,7 @@
     </row>
     <row r="75" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I75" s="98" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="J75" s="99"/>
       <c r="K75" s="99"/>
@@ -17252,7 +20376,9 @@
     </row>
     <row r="87" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="88" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I88" s="36"/>
+      <c r="I88" s="36" t="s">
+        <v>61</v>
+      </c>
       <c r="J88" s="37"/>
       <c r="K88" s="37"/>
       <c r="L88" s="37"/>
@@ -17560,7 +20686,7 @@
     </row>
     <row r="93" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I93" s="92" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="J93" s="93"/>
       <c r="K93" s="93"/>
@@ -17638,7 +20764,7 @@
     </row>
     <row r="94" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I94" s="95" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="J94" s="96"/>
       <c r="K94" s="96"/>
@@ -17716,7 +20842,7 @@
     </row>
     <row r="95" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I95" s="98" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J95" s="99"/>
       <c r="K95" s="99"/>
@@ -17794,7 +20920,7 @@
     </row>
     <row r="96" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I96" s="95" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="J96" s="96"/>
       <c r="K96" s="96"/>
@@ -17872,7 +20998,7 @@
     </row>
     <row r="97" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I97" s="98" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="J97" s="99"/>
       <c r="K97" s="99"/>
@@ -17950,7 +21076,7 @@
     </row>
     <row r="98" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I98" s="95" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="J98" s="96"/>
       <c r="K98" s="96"/>
@@ -18028,7 +21154,7 @@
     </row>
     <row r="99" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I99" s="98" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="J99" s="99"/>
       <c r="K99" s="99"/>
@@ -18105,7 +21231,9 @@
       <c r="CD99" s="88"/>
     </row>
     <row r="100" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I100" s="95"/>
+      <c r="I100" s="95" t="s">
+        <v>39</v>
+      </c>
       <c r="J100" s="96"/>
       <c r="K100" s="96"/>
       <c r="L100" s="96"/>
@@ -18181,7 +21309,9 @@
       <c r="CD100" s="88"/>
     </row>
     <row r="101" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I101" s="98"/>
+      <c r="I101" s="98" t="s">
+        <v>39</v>
+      </c>
       <c r="J101" s="99"/>
       <c r="K101" s="99"/>
       <c r="L101" s="99"/>
@@ -18257,7 +21387,9 @@
       <c r="CD101" s="88"/>
     </row>
     <row r="102" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I102" s="95"/>
+      <c r="I102" s="95" t="s">
+        <v>39</v>
+      </c>
       <c r="J102" s="96"/>
       <c r="K102" s="96"/>
       <c r="L102" s="96"/>
@@ -18486,7 +21618,9 @@
     </row>
     <row r="107" spans="9:82" ht="13.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.5"/>
     <row r="108" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="I108" s="36"/>
+      <c r="I108" s="36" t="s">
+        <v>60</v>
+      </c>
       <c r="J108" s="37"/>
       <c r="K108" s="37"/>
       <c r="L108" s="37"/>
@@ -18794,7 +21928,7 @@
     </row>
     <row r="113" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I113" s="92" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="J113" s="93"/>
       <c r="K113" s="93"/>
@@ -18872,7 +22006,7 @@
     </row>
     <row r="114" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I114" s="95" t="s">
-        <v>39</v>
+        <v>63</v>
       </c>
       <c r="J114" s="96"/>
       <c r="K114" s="96"/>
@@ -18950,7 +22084,7 @@
     </row>
     <row r="115" spans="9:82" ht="13.8" customHeight="1" x14ac:dyDescent="0.45">
       <c r="I115" s="98" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="J115" s="99"/>
       <c r="K115" s="99"/>
@@ -26010,6 +29144,13 @@
     <mergeCell ref="I82:AZ82"/>
     <mergeCell ref="I83:AZ83"/>
     <mergeCell ref="I84:AZ84"/>
+    <mergeCell ref="A50:G51"/>
+    <mergeCell ref="A38:G39"/>
+    <mergeCell ref="A40:G41"/>
+    <mergeCell ref="A42:G43"/>
+    <mergeCell ref="A44:G45"/>
+    <mergeCell ref="A46:G47"/>
+    <mergeCell ref="A48:G49"/>
     <mergeCell ref="I48:CD50"/>
     <mergeCell ref="I52:AZ52"/>
     <mergeCell ref="BA52:CD64"/>
@@ -26025,18 +29166,6 @@
     <mergeCell ref="I62:AZ62"/>
     <mergeCell ref="I63:AZ63"/>
     <mergeCell ref="I64:AZ64"/>
-    <mergeCell ref="A30:G31"/>
-    <mergeCell ref="A32:G33"/>
-    <mergeCell ref="A34:G35"/>
-    <mergeCell ref="I28:CD30"/>
-    <mergeCell ref="I32:CD44"/>
-    <mergeCell ref="A50:G51"/>
-    <mergeCell ref="A38:G39"/>
-    <mergeCell ref="A40:G41"/>
-    <mergeCell ref="A42:G43"/>
-    <mergeCell ref="A44:G45"/>
-    <mergeCell ref="A46:G47"/>
-    <mergeCell ref="A48:G49"/>
     <mergeCell ref="A12:G13"/>
     <mergeCell ref="A1:XFD3"/>
     <mergeCell ref="A4:XFD5"/>
@@ -26054,6 +29183,11 @@
     <mergeCell ref="A24:G25"/>
     <mergeCell ref="A26:G27"/>
     <mergeCell ref="A28:G29"/>
+    <mergeCell ref="A30:G31"/>
+    <mergeCell ref="A32:G33"/>
+    <mergeCell ref="A34:G35"/>
+    <mergeCell ref="I28:CD30"/>
+    <mergeCell ref="I32:CD44"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <hyperlinks>
